--- a/data/trans_dic/Q20C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.08200829400544794</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3426800193392901</v>
+        <v>0.3426800193392902</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.251517936253681</v>
@@ -685,7 +685,7 @@
         <v>0.1901731618329999</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09616059937471709</v>
+        <v>0.09616059937471712</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2940383330388231</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1649162264783017</v>
+        <v>0.161550301402976</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07597644918444144</v>
+        <v>0.06951404535223712</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1458344013281178</v>
+        <v>0.1748302416722856</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1263798603133594</v>
+        <v>0.126871196242617</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.108626289655344</v>
+        <v>0.1073453529629269</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06940454014987921</v>
+        <v>0.07073617013777941</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02304921286924769</v>
+        <v>0.02330551799715118</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1809851700211537</v>
+        <v>0.1754080272639603</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.128192360954093</v>
+        <v>0.1137066920366019</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0699325234663386</v>
+        <v>0.07059074352746846</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1139912199553318</v>
+        <v>0.1222477977293525</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5872564288463659</v>
+        <v>0.5869985402608607</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4091059671365617</v>
+        <v>0.3880690407273037</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3976965298796051</v>
+        <v>0.3938964080383174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5452021140369818</v>
+        <v>0.5552039723116847</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4433579387489386</v>
+        <v>0.4392755668827143</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3680849324982938</v>
+        <v>0.3796573456046569</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3831712128247995</v>
+        <v>0.3821885916149692</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2464604988708905</v>
+        <v>0.2724659517352135</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.434891160374118</v>
+        <v>0.4353357124370489</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3464219594753183</v>
+        <v>0.3171448008010964</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2911265257543709</v>
+        <v>0.3211503469471009</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3661116617727243</v>
+        <v>0.3696432532672202</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3381511865087544</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2394031623406704</v>
+        <v>0.2394031623406705</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04451744606644868</v>
@@ -833,7 +833,7 @@
         <v>0.317059711411405</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2613867085910226</v>
+        <v>0.2613867085910225</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.07400703724920665</v>
+        <v>0.07522028080697518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1448900944394551</v>
+        <v>0.1425671976167127</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.134133377889049</v>
+        <v>0.1330319962434822</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1218336524659636</v>
+        <v>0.1425649095904769</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1723419136508314</v>
+        <v>0.1839593003669306</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1265319421417374</v>
+        <v>0.1212715689065351</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1442646678209424</v>
+        <v>0.1435874506428819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.20848951961381</v>
+        <v>0.2048260396095897</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1663653577348734</v>
+        <v>0.1711104262918568</v>
       </c>
     </row>
     <row r="9">
@@ -887,37 +887,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.38967998716019</v>
+        <v>0.4094520103571033</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4817422443371319</v>
+        <v>0.4679700709239122</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4577221276012011</v>
+        <v>0.4537631224575741</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3147759097618871</v>
+        <v>0.2857576009876047</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4685595896714657</v>
+        <v>0.4609365619317532</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5269097094442815</v>
+        <v>0.5373937399337813</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3902026807430549</v>
+        <v>0.3903228684124238</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2229277529740903</v>
+        <v>0.2195853527596487</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3714235980488755</v>
+        <v>0.3746582376013945</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4521677397366091</v>
+        <v>0.4451157896530589</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3795740654284033</v>
+        <v>0.382404317381965</v>
       </c>
     </row>
     <row r="10">
@@ -981,25 +981,25 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.04778709907877205</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.1358348997198759</v>
+        <v>0.1329071360684155</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.07284203722802662</v>
+        <v>0.07096755440267194</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1050383679341111</v>
+        <v>0.09696368782591226</v>
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.1058431810495085</v>
+        <v>0.08583304543672338</v>
       </c>
     </row>
     <row r="12">
@@ -1010,30 +1010,30 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7802548138375768</v>
+        <v>0.7144209109716191</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.5408577085189658</v>
+        <v>0.5097450757285222</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.8694369937590527</v>
+        <v>0.8666316211622657</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.5576215048873121</v>
+        <v>0.5533387113986135</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5363465247450714</v>
+        <v>0.5311995462726391</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7124088522437025</v>
+        <v>0.7169640064398831</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.4582527466754867</v>
+        <v>0.4303872883933236</v>
       </c>
     </row>
     <row r="13">
@@ -1092,40 +1092,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1014161371530376</v>
+        <v>0.1065106875994916</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.122979232543142</v>
+        <v>0.1199998437417576</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1703973732946248</v>
+        <v>0.1666315707379428</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1808486673765193</v>
+        <v>0.1862427451897988</v>
       </c>
     </row>
     <row r="15">
@@ -1136,40 +1136,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3239418267694819</v>
+        <v>0.3213837814564255</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3103389432487033</v>
+        <v>0.3034604658235098</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3152250034253426</v>
+        <v>0.3174157901953795</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3251956899877047</v>
+        <v>0.33045335747719</v>
       </c>
     </row>
     <row r="16">
@@ -1439,40 +1439,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2840</v>
+        <v>2782</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2114</v>
+        <v>1934</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2329</v>
+        <v>2792</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3876</v>
+        <v>3891</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4146</v>
+        <v>4097</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1722</v>
+        <v>1755</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8667</v>
+        <v>8400</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8460</v>
+        <v>7504</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2639</v>
+        <v>2664</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3474</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="7">
@@ -1483,40 +1483,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10114</v>
+        <v>10109</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11383</v>
+        <v>10797</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5137</v>
+        <v>5088</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8707</v>
+        <v>8867</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13596</v>
+        <v>13471</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14049</v>
+        <v>14491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9509</v>
+        <v>9485</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3574</v>
+        <v>3952</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20827</v>
+        <v>20848</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22861</v>
+        <v>20929</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10985</v>
+        <v>12118</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>11157</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="8">
@@ -1620,37 +1620,37 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>2082</v>
+        <v>2117</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4930</v>
+        <v>4851</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4748</v>
+        <v>4709</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4137</v>
+        <v>4841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5759</v>
+        <v>6147</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3456</v>
+        <v>3312</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8959</v>
+        <v>8916</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>14061</v>
+        <v>13813</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10432</v>
+        <v>10730</v>
       </c>
     </row>
     <row r="11">
@@ -1662,37 +1662,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>10965</v>
+        <v>11522</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16391</v>
+        <v>15923</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16202</v>
+        <v>16062</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4480</v>
+        <v>4067</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15911</v>
+        <v>15652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17606</v>
+        <v>17956</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10657</v>
+        <v>10660</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>4893</v>
+        <v>4819</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>23065</v>
+        <v>23266</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>30494</v>
+        <v>30019</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23802</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="12">
@@ -1800,25 +1800,25 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>1227</v>
+        <v>1201</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1274</v>
+        <v>1176</v>
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>2094</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="15">
@@ -1829,30 +1829,30 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6534</v>
+        <v>5983</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>6051</v>
+        <v>5703</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>7854</v>
+        <v>7829</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4793</v>
+        <v>4756</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6698</v>
+        <v>6634</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8639</v>
+        <v>8694</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>9066</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="16">
@@ -1955,40 +1955,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5989</v>
+        <v>6290</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6199</v>
+        <v>6049</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>23893</v>
+        <v>23365</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>20430</v>
+        <v>21039</v>
       </c>
     </row>
     <row r="19">
@@ -1999,40 +1999,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19130</v>
+        <v>18979</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15644</v>
+        <v>15297</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>44200</v>
+        <v>44507</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>36736</v>
+        <v>37330</v>
       </c>
     </row>
     <row r="20">
